--- a/excel-file/stock-data7.xlsx
+++ b/excel-file/stock-data7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,26 +472,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tata motors</t>
+          <t>itc</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10.55</v>
+        <v>251</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -499,55 +499,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tata motors</t>
+          <t>itc</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10.55</v>
+        <v>229</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>tata motors</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2022-06-11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="G4" t="n">
         <v>2</v>
       </c>
     </row>
